--- a/results/asp_results.xlsx
+++ b/results/asp_results.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RAccoon\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7377CBB5-7A80-4688-8682-59FE60CF2422}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
   <si>
     <t>C1</t>
   </si>
@@ -158,33 +175,111 @@
   </si>
   <si>
     <t>gate_input(1,positive,hsa_miR_183)</t>
+  </si>
+  <si>
+    <t>ASP METHOD: 3-FOLD CROSSVALIDATION</t>
+  </si>
+  <si>
+    <t>DATASET</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>SENSITIVITY</t>
+  </si>
+  <si>
+    <t>SPECIFICITY</t>
+  </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>FOLD 1</t>
+  </si>
+  <si>
+    <t>FOLD 2</t>
+  </si>
+  <si>
+    <t>FOLD 3</t>
+  </si>
+  <si>
+    <t>Triple-</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Her2+</t>
+  </si>
+  <si>
+    <t>ER+ Her-</t>
+  </si>
+  <si>
+    <t>Cell Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -204,76 +299,418 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -293,138 +730,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="1">((A4-D4)/A4 + (B4-C4)/B4)/2</f>
-        <v>0.7772397094</v>
+        <f t="shared" ref="E4:E9" si="0">((A4-D4)/A4 + (B4-C4)/B4)/2</f>
+        <v>0.77723970944309928</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.8444309927</v>
+        <f t="shared" si="0"/>
+        <v>0.84443099273607747</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.911622276</v>
+        <f t="shared" si="0"/>
+        <v>0.91162227602905566</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.7100484262</v>
+        <f t="shared" si="0"/>
+        <v>0.71004842615012109</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.6428571429</v>
+        <f t="shared" si="0"/>
+        <v>0.64285714285714279</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.9788135593</v>
+        <f t="shared" si="0"/>
+        <v>0.97881355932203395</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -444,64 +881,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <f>((A13-D13)/A13 + (B13-C13)/B13)/2</f>
-        <v>0.7814769976</v>
+        <v>0.78147699757869249</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>((A15-D15)/A15 + (B15-C15)/B15)/2</f>
-        <v>0.7142857143</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -521,38 +958,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5">
         <f>((A20-D20)/A20 + (B20-C20)/B20)/2</f>
-        <v>0.9200968523</v>
+        <v>0.92009685230024219</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -572,80 +1009,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f>((A26-D26)/A26 + (B26-C26)/B26)/2</f>
-        <v>0.8465045593</v>
+        <v>0.84650455927051671</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E29" si="2">((A28-D28)/A28 + (B28-C28)/B28)/2</f>
-        <v>0.9072948328</v>
+        <f t="shared" ref="E28:E29" si="1">((A28-D28)/A28 + (B28-C28)/B28)/2</f>
+        <v>0.90729483282674772</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="2"/>
-        <v>0.9680851064</v>
+        <f t="shared" si="1"/>
+        <v>0.96808510638297873</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -665,33 +1102,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="5">
         <f>((A33-D33)/A33 + (B33-C33)/B33)/2</f>
-        <v>0.9179331307</v>
+        <v>0.91793313069908811</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -711,39 +1148,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>56-7</f>
         <v>49</v>
       </c>
       <c r="B37" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5">
         <f>((A37-D37)/A37 + (B37-C37)/B37)/2</f>
-        <v>0.9183673469</v>
+        <v>0.91836734693877542</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -763,19 +1200,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>57-7</f>
         <v>50</v>
       </c>
       <c r="B43" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E43" s="5">
         <f>((A43-D43)/A43 + (B43-C43)/B43)/2</f>
@@ -785,22 +1222,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F44" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F45" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -820,39 +1257,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>57-7</f>
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5">
         <f>((A49-D49)/A49 + (B49-C49)/B49)/2</f>
-        <v>0.9285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F50" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
@@ -872,39 +1309,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>58-7</f>
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E55" s="5">
         <f>((A55-D55)/A55 + (B55-C55)/B55)/2</f>
-        <v>0.9285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -924,19 +1361,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>21-7</f>
         <v>14</v>
       </c>
       <c r="B61" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E61" s="5">
         <f>((A61-D61)/A61 + (B61-C61)/B61)/2</f>
@@ -946,12 +1383,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
@@ -971,39 +1408,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>21-7</f>
         <v>14</v>
       </c>
       <c r="B65" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5">
         <f>((A65-D65)/A65 + (B65-C65)/B65)/2</f>
-        <v>0.8571428571</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F66" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
@@ -1023,46 +1460,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>22-7</f>
         <v>15</v>
       </c>
       <c r="B71" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
         <f>((A71-D71)/A71 + (B71-C71)/B71)/2</f>
-        <v>0.9285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F72" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -1082,19 +1519,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>11-7</f>
         <v>4</v>
       </c>
       <c r="B78" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C78" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D78" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E78" s="5">
         <f>((A78-D78)/A78 + (B78-C78)/B78)/2</f>
@@ -1104,39 +1541,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F79" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F80" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F81" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F82" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F83" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
@@ -1156,19 +1593,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>11-7</f>
         <v>4</v>
       </c>
       <c r="B87" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C87" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D87" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E87" s="5">
         <f>((A87-D87)/A87 + (B87-C87)/B87)/2</f>
@@ -1178,39 +1615,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F88" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F89" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F90" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F91" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F92" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -1230,19 +1667,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>12-7</f>
         <v>5</v>
       </c>
       <c r="B96" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C96" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D96" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E96" s="5">
         <f>((A96-D96)/A96 + (B96-C96)/B96)/2</f>
@@ -1252,58 +1689,1003 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F97" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F98" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F99" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F100" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F101" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F102" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F103" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F104" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F105" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
     </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L112" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" s="14">
+        <v>56</v>
+      </c>
+      <c r="C114" s="14">
+        <v>4</v>
+      </c>
+      <c r="D114" s="14">
+        <v>55</v>
+      </c>
+      <c r="E114" s="14">
+        <v>3</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1</v>
+      </c>
+      <c r="G114" s="14">
+        <v>1</v>
+      </c>
+      <c r="H114" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="I114" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J114" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="K114" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="L114" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="M114" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="N114" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="14">
+        <v>56</v>
+      </c>
+      <c r="C115" s="14">
+        <v>4</v>
+      </c>
+      <c r="D115" s="14">
+        <v>54</v>
+      </c>
+      <c r="E115" s="14">
+        <v>1</v>
+      </c>
+      <c r="F115" s="14">
+        <v>3</v>
+      </c>
+      <c r="G115" s="14">
+        <v>2</v>
+      </c>
+      <c r="H115" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I115" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J115" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K115" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="L115" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="M115" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="N115" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" s="14">
+        <v>55</v>
+      </c>
+      <c r="C116" s="14">
+        <v>3</v>
+      </c>
+      <c r="D116" s="14">
+        <v>52</v>
+      </c>
+      <c r="E116" s="14">
+        <v>2</v>
+      </c>
+      <c r="F116" s="14">
+        <v>1</v>
+      </c>
+      <c r="G116" s="14">
+        <v>3</v>
+      </c>
+      <c r="H116" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="I116" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="K116" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="L116" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="M116" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="N116" s="14">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H117" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="I117" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J117" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="K117" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="L117" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="M117" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="N117" s="16">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="14">
+        <v>24</v>
+      </c>
+      <c r="C118" s="14">
+        <v>4</v>
+      </c>
+      <c r="D118" s="14">
+        <v>20</v>
+      </c>
+      <c r="E118" s="14">
+        <v>3</v>
+      </c>
+      <c r="F118" s="14">
+        <v>1</v>
+      </c>
+      <c r="G118" s="14">
+        <v>4</v>
+      </c>
+      <c r="H118" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="I118" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J118" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K118" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="L118" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="M118" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="N118" s="14">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" s="14">
+        <v>24</v>
+      </c>
+      <c r="C119" s="14">
+        <v>4</v>
+      </c>
+      <c r="D119" s="14">
+        <v>22</v>
+      </c>
+      <c r="E119" s="14">
+        <v>2</v>
+      </c>
+      <c r="F119" s="14">
+        <v>2</v>
+      </c>
+      <c r="G119" s="14">
+        <v>2</v>
+      </c>
+      <c r="H119" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="I119" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J119" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="K119" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="L119" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="M119" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="N119" s="14">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="14">
+        <v>23</v>
+      </c>
+      <c r="C120" s="14">
+        <v>3</v>
+      </c>
+      <c r="D120" s="14">
+        <v>20</v>
+      </c>
+      <c r="E120" s="14">
+        <v>2</v>
+      </c>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+      <c r="G120" s="14">
+        <v>3</v>
+      </c>
+      <c r="H120" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="I120" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="J120" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="K120" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="L120" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="M120" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="N120" s="14">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H121" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="I121" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="J121" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="K121" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="L121" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="M121" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="N121" s="16">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="14">
+        <v>25</v>
+      </c>
+      <c r="C122" s="14">
+        <v>4</v>
+      </c>
+      <c r="D122" s="14">
+        <v>25</v>
+      </c>
+      <c r="E122" s="14">
+        <v>2</v>
+      </c>
+      <c r="F122" s="14">
+        <v>2</v>
+      </c>
+      <c r="G122" s="14">
+        <v>0</v>
+      </c>
+      <c r="H122" s="14">
+        <v>1</v>
+      </c>
+      <c r="I122" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J122" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="K122" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="L122" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="M122" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="N122" s="14">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" s="14">
+        <v>25</v>
+      </c>
+      <c r="C123" s="14">
+        <v>4</v>
+      </c>
+      <c r="D123" s="14">
+        <v>25</v>
+      </c>
+      <c r="E123" s="14">
+        <v>4</v>
+      </c>
+      <c r="F123" s="14">
+        <v>0</v>
+      </c>
+      <c r="G123" s="14">
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>1</v>
+      </c>
+      <c r="I123" s="14">
+        <v>1</v>
+      </c>
+      <c r="J123" s="14">
+        <v>1</v>
+      </c>
+      <c r="K123" s="14">
+        <v>1</v>
+      </c>
+      <c r="L123" s="14">
+        <v>1</v>
+      </c>
+      <c r="M123" s="14">
+        <v>1</v>
+      </c>
+      <c r="N123" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="14">
+        <v>25</v>
+      </c>
+      <c r="C124" s="14">
+        <v>3</v>
+      </c>
+      <c r="D124" s="14">
+        <v>25</v>
+      </c>
+      <c r="E124" s="14">
+        <v>1</v>
+      </c>
+      <c r="F124" s="14">
+        <v>2</v>
+      </c>
+      <c r="G124" s="14">
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <v>1</v>
+      </c>
+      <c r="I124" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="J124" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="K124" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="L124" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="M124" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="N124" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H125" s="16">
+        <v>1</v>
+      </c>
+      <c r="I125" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="J125" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="K125" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="L125" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="M125" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="N125" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B126" s="14">
+        <v>7</v>
+      </c>
+      <c r="C126" s="14">
+        <v>4</v>
+      </c>
+      <c r="D126" s="14">
+        <v>5</v>
+      </c>
+      <c r="E126" s="14">
+        <v>3</v>
+      </c>
+      <c r="F126" s="14">
+        <v>1</v>
+      </c>
+      <c r="G126" s="14">
+        <v>2</v>
+      </c>
+      <c r="H126" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="I126" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J126" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="K126" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="L126" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="M126" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="N126" s="14">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="14">
+        <v>7</v>
+      </c>
+      <c r="C127" s="14">
+        <v>4</v>
+      </c>
+      <c r="D127" s="14">
+        <v>7</v>
+      </c>
+      <c r="E127" s="14">
+        <v>2</v>
+      </c>
+      <c r="F127" s="14">
+        <v>2</v>
+      </c>
+      <c r="G127" s="14">
+        <v>0</v>
+      </c>
+      <c r="H127" s="14">
+        <v>1</v>
+      </c>
+      <c r="I127" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J127" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="K127" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="L127" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="M127" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="N127" s="14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="14">
+        <v>7</v>
+      </c>
+      <c r="C128" s="14">
+        <v>3</v>
+      </c>
+      <c r="D128" s="14">
+        <v>7</v>
+      </c>
+      <c r="E128" s="14">
+        <v>2</v>
+      </c>
+      <c r="F128" s="14">
+        <v>1</v>
+      </c>
+      <c r="G128" s="14">
+        <v>0</v>
+      </c>
+      <c r="H128" s="14">
+        <v>1</v>
+      </c>
+      <c r="I128" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="J128" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="K128" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="L128" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="M128" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="N128" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H129" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="I129" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="J129" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="K129" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="L129" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="M129" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="N129" s="16">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="14">
+        <v>2</v>
+      </c>
+      <c r="C130" s="14">
+        <v>4</v>
+      </c>
+      <c r="D130" s="14">
+        <v>2</v>
+      </c>
+      <c r="E130" s="14">
+        <v>4</v>
+      </c>
+      <c r="F130" s="14">
+        <v>0</v>
+      </c>
+      <c r="G130" s="14">
+        <v>0</v>
+      </c>
+      <c r="H130" s="14">
+        <v>1</v>
+      </c>
+      <c r="I130" s="14">
+        <v>1</v>
+      </c>
+      <c r="J130" s="14">
+        <v>1</v>
+      </c>
+      <c r="K130" s="14">
+        <v>1</v>
+      </c>
+      <c r="L130" s="14">
+        <v>1</v>
+      </c>
+      <c r="M130" s="14">
+        <v>1</v>
+      </c>
+      <c r="N130" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="14">
+        <v>2</v>
+      </c>
+      <c r="C131" s="14">
+        <v>4</v>
+      </c>
+      <c r="D131" s="14">
+        <v>2</v>
+      </c>
+      <c r="E131" s="14">
+        <v>4</v>
+      </c>
+      <c r="F131" s="14">
+        <v>0</v>
+      </c>
+      <c r="G131" s="14">
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>1</v>
+      </c>
+      <c r="I131" s="14">
+        <v>1</v>
+      </c>
+      <c r="J131" s="14">
+        <v>1</v>
+      </c>
+      <c r="K131" s="14">
+        <v>1</v>
+      </c>
+      <c r="L131" s="14">
+        <v>1</v>
+      </c>
+      <c r="M131" s="14">
+        <v>1</v>
+      </c>
+      <c r="N131" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="14">
+        <v>2</v>
+      </c>
+      <c r="C132" s="14">
+        <v>3</v>
+      </c>
+      <c r="D132" s="14">
+        <v>1</v>
+      </c>
+      <c r="E132" s="14">
+        <v>3</v>
+      </c>
+      <c r="F132" s="14">
+        <v>0</v>
+      </c>
+      <c r="G132" s="14">
+        <v>1</v>
+      </c>
+      <c r="H132" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I132" s="14">
+        <v>1</v>
+      </c>
+      <c r="J132" s="14">
+        <v>1</v>
+      </c>
+      <c r="K132" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="L132" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="M132" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="N132" s="14">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H133" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="I133" s="16">
+        <v>1</v>
+      </c>
+      <c r="J133" s="16">
+        <v>1</v>
+      </c>
+      <c r="K133" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="L133" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="M133" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="N133" s="16">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F134" s="18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G134" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+    </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>